--- a/post_zinnen/reeks1/datab_frasi.xlsx
+++ b/post_zinnen/reeks1/datab_frasi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Documents\Languages\italiaans\flashcards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Documents\Akron2023\italtest1\post_zinnen\reeks1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4A280E-80D2-495F-9BBA-49EB6BFC1038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CED8B8-E8F0-4E16-870E-A8778E6661DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8B7D3B3-5B30-456E-80A4-B65427400280}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>italiaans</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Je kunt niet zeggen dat je Lucca echt hebt bezocht zonder een echte rondleiding langs de stadsmuren en de belangrijkste toegangspoorten tot het historische centrum te hebben gemaakt.</t>
   </si>
   <si>
-    <t>De Guinigi-toren is een van de belangrijkste torens in Lucca, evenals de enige intact gebleven binnen de muren. Gebouwd in baksteen en steen, werd het gebouwd in opdracht van de Guinigi-familie als een symbool van wedergeboorte: het bijzondere van het gebouw ligt in feite in de aanwezigheid op de top van enkele steeneiken, wat betekende dat de welvaart en het welzijn werden gebracht door de familie Guinigi.</t>
-  </si>
-  <si>
     <t>Per un primo approccio alla città, vi consigliamo di prendere parte ad un tour a piedi con una guida locale, che vi farà conoscere tutti i segreti della città! La piazza si trova nel cuore del centro storico di Siena.</t>
   </si>
   <si>
@@ -358,6 +355,36 @@
     </r>
   </si>
   <si>
+    <t>Tre attrazioni in una: potremmo riassumere così la visita all'elegante Palazzo Pubblico senese, uno dei più maestosi edifici ad uso civile della nostra Nazione.</t>
+  </si>
+  <si>
+    <t>Drie attracties in één: zo zouden we het bezoek aan het elegante Siena Pubblico, een van de meest majestueuze gebouwen voor civiel gebruik in ons land, kunnen samenvatten.</t>
+  </si>
+  <si>
+    <t>Per raggiungere la sua sommità (88 m) bisogna armarsi di coraggio perché vanno affrontati ben 400 scalini! Ma la fatica sarà poi ripagata dal meraviglioso panorama che si gode da lassù!</t>
+  </si>
+  <si>
+    <t>Om de top (88 m) te bereiken, moet je jezelf met moed bewapenen, want je moet 400 treden trotseren! Maar de moeite wordt dan beloond met het prachtige panorama waarvan je van bovenaf kunt genieten!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sotto l’impero di Augusto inizia per la Valdichiana un periodo di decadenza, le popolazioni, a causa dell’impaludamento della valle, si spostano su zone collinari più sicure e salubri. </t>
+  </si>
+  <si>
+    <t>Onder het rijk van Augustus brak een periode van achteruitgang aan voor de Valdichiana, de bevolking, als gevolg van het overstromen van de vallei, verhuisde naar veiligere en gezondere heuvelachtige gebieden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E’ questo il momento della costruzione delle pievi, collocate lungo un percorso ai piedi delle colline e nel tracciato viario della Val di Chio. </t>
+  </si>
+  <si>
+    <t>Dit is het moment van de bouw van de kerken, gelegen langs een pad aan de voet van de heuvels en in het wegennet van de Val di Chio.</t>
+  </si>
+  <si>
+    <t>vakantie1.xlsx</t>
+  </si>
+  <si>
+    <t>italiaansesteden</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">La Torre Guinigi è </t>
     </r>
@@ -419,38 +446,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>della famiglia Guinigi  come simbolo di rinascita: la particolarità dell’edificio infatti sta nella presenza sulla sommità di alcuni lecci, che andavano a significare la prosperità e il benessere portati dalla famiglia Guinigi.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tre attrazioni in una: potremmo riassumere così la visita all'elegante Palazzo Pubblico senese, uno dei più maestosi edifici ad uso civile della nostra Nazione.</t>
-  </si>
-  <si>
-    <t>Drie attracties in één: zo zouden we het bezoek aan het elegante Siena Pubblico, een van de meest majestueuze gebouwen voor civiel gebruik in ons land, kunnen samenvatten.</t>
-  </si>
-  <si>
-    <t>Per raggiungere la sua sommità (88 m) bisogna armarsi di coraggio perché vanno affrontati ben 400 scalini! Ma la fatica sarà poi ripagata dal meraviglioso panorama che si gode da lassù!</t>
-  </si>
-  <si>
-    <t>Om de top (88 m) te bereiken, moet je jezelf met moed bewapenen, want je moet 400 treden trotseren! Maar de moeite wordt dan beloond met het prachtige panorama waarvan je van bovenaf kunt genieten!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sotto l’impero di Augusto inizia per la Valdichiana un periodo di decadenza, le popolazioni, a causa dell’impaludamento della valle, si spostano su zone collinari più sicure e salubri. </t>
-  </si>
-  <si>
-    <t>Onder het rijk van Augustus brak een periode van achteruitgang aan voor de Valdichiana, de bevolking, als gevolg van het overstromen van de vallei, verhuisde naar veiligere en gezondere heuvelachtige gebieden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E’ questo il momento della costruzione delle pievi, collocate lungo un percorso ai piedi delle colline e nel tracciato viario della Val di Chio. </t>
-  </si>
-  <si>
-    <t>Dit is het moment van de bouw van de kerken, gelegen langs een pad aan de voet van de heuvels en in het wegennet van de Val di Chio.</t>
-  </si>
-  <si>
-    <t>vakantie1.xlsx</t>
-  </si>
-  <si>
-    <t>italiaansesteden</t>
+      <t>della famiglia Guinigi  come simbolo di rinascita.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">De Guinigi-toren is een van de belangrijkste torens in Lucca, evenals de enige intact gebleven binnen de muren. Gebouwd in baksteen en steen, werd het gebouwd in opdracht van de Guinigi-familie als een symbool van wedergeboorte. </t>
+  </si>
+  <si>
+    <t>Het bijzondere van het gebouw ligt in feite in de aanwezigheid op de top van enkele steeneiken, wat betekende dat de welvaart en het welzijn werden gebracht door de familie Guinigi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La particolarità dell’edificio infatti sta nella presenza sulla sommità di alcuni lecci, che andavano a significare la prosperità e il benessere portati dalla famiglia Guinigi.</t>
   </si>
 </sst>
 </file>
@@ -874,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB786F9-2711-4E3C-A601-BBC5CA704EC1}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,100 +1231,114 @@
     </row>
     <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="C32" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D32" t="s">
         <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
